--- a/ASMDuAn1/LuongNV.xlsx
+++ b/ASMDuAn1/LuongNV.xlsx
@@ -208,7 +208,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>200000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>6000000.0</v>
@@ -217,10 +217,10 @@
         <v>500000.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="5">
@@ -234,7 +234,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>200000.0</v>
+        <v>0.0</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>6000000.0</v>
@@ -243,10 +243,10 @@
         <v>500000.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>100000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
   </sheetData>
